--- a/planilhas/Base_confirmação.xlsx
+++ b/planilhas/Base_confirmação.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPERVISÃO ADM\Desktop\RPA_verificação_ipasgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPERVISÃO ADM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFC689C-07E5-46C1-9D07-405B3752DF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86334AF-22DB-4E42-A864-1CCBE2DA8320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{974E409B-6F54-4FDE-9377-85C91B586FC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="333">
   <si>
     <t>Paciente</t>
   </si>
@@ -577,6 +577,462 @@
   </si>
   <si>
     <t>YURI ALMEIDA NOVAIS</t>
+  </si>
+  <si>
+    <t>Carteirinha</t>
+  </si>
+  <si>
+    <t>667374175</t>
+  </si>
+  <si>
+    <t>667296363</t>
+  </si>
+  <si>
+    <t>667390042</t>
+  </si>
+  <si>
+    <t>667294629</t>
+  </si>
+  <si>
+    <t>667361195</t>
+  </si>
+  <si>
+    <t>667332303</t>
+  </si>
+  <si>
+    <t>057685905</t>
+  </si>
+  <si>
+    <t>667391683</t>
+  </si>
+  <si>
+    <t>667434549</t>
+  </si>
+  <si>
+    <t>667254410</t>
+  </si>
+  <si>
+    <t>667323304</t>
+  </si>
+  <si>
+    <t>667290421</t>
+  </si>
+  <si>
+    <t>667394793</t>
+  </si>
+  <si>
+    <t>667154312</t>
+  </si>
+  <si>
+    <t>061702405</t>
+  </si>
+  <si>
+    <t>667272762</t>
+  </si>
+  <si>
+    <t>667223603</t>
+  </si>
+  <si>
+    <t>667325484</t>
+  </si>
+  <si>
+    <t>667370394</t>
+  </si>
+  <si>
+    <t>667336317</t>
+  </si>
+  <si>
+    <t>667327533</t>
+  </si>
+  <si>
+    <t>055717014</t>
+  </si>
+  <si>
+    <t>667391441</t>
+  </si>
+  <si>
+    <t>667403155</t>
+  </si>
+  <si>
+    <t>667374204</t>
+  </si>
+  <si>
+    <t>667353414</t>
+  </si>
+  <si>
+    <t>667419438</t>
+  </si>
+  <si>
+    <t>667373143</t>
+  </si>
+  <si>
+    <t>667372507</t>
+  </si>
+  <si>
+    <t>274222504</t>
+  </si>
+  <si>
+    <t>667221001</t>
+  </si>
+  <si>
+    <t>667332816</t>
+  </si>
+  <si>
+    <t>667389604</t>
+  </si>
+  <si>
+    <t>231501702</t>
+  </si>
+  <si>
+    <t>667390497</t>
+  </si>
+  <si>
+    <t>667288630</t>
+  </si>
+  <si>
+    <t>667401884</t>
+  </si>
+  <si>
+    <t>667343856</t>
+  </si>
+  <si>
+    <t>667391723</t>
+  </si>
+  <si>
+    <t>667388949</t>
+  </si>
+  <si>
+    <t>667218235</t>
+  </si>
+  <si>
+    <t>667242484</t>
+  </si>
+  <si>
+    <t>667216304</t>
+  </si>
+  <si>
+    <t>667352014</t>
+  </si>
+  <si>
+    <t>667303798</t>
+  </si>
+  <si>
+    <t>667323107</t>
+  </si>
+  <si>
+    <t>667383163</t>
+  </si>
+  <si>
+    <t>667386399</t>
+  </si>
+  <si>
+    <t>294858305</t>
+  </si>
+  <si>
+    <t>667190474</t>
+  </si>
+  <si>
+    <t>667253790</t>
+  </si>
+  <si>
+    <t>667281364</t>
+  </si>
+  <si>
+    <t>667231915</t>
+  </si>
+  <si>
+    <t>667401685</t>
+  </si>
+  <si>
+    <t>667357124</t>
+  </si>
+  <si>
+    <t>667381819</t>
+  </si>
+  <si>
+    <t>279990100</t>
+  </si>
+  <si>
+    <t>667302113</t>
+  </si>
+  <si>
+    <t>667240695</t>
+  </si>
+  <si>
+    <t>262148702</t>
+  </si>
+  <si>
+    <t>667184025</t>
+  </si>
+  <si>
+    <t>667274212</t>
+  </si>
+  <si>
+    <t>667183075</t>
+  </si>
+  <si>
+    <t>667420873</t>
+  </si>
+  <si>
+    <t>667384119</t>
+  </si>
+  <si>
+    <t>667351862</t>
+  </si>
+  <si>
+    <t>667360202</t>
+  </si>
+  <si>
+    <t>667208906</t>
+  </si>
+  <si>
+    <t>667300448</t>
+  </si>
+  <si>
+    <t>667390567</t>
+  </si>
+  <si>
+    <t>667342929</t>
+  </si>
+  <si>
+    <t>667369934</t>
+  </si>
+  <si>
+    <t>667378225</t>
+  </si>
+  <si>
+    <t>667372758</t>
+  </si>
+  <si>
+    <t>292540102</t>
+  </si>
+  <si>
+    <t>667431900</t>
+  </si>
+  <si>
+    <t>435953405</t>
+  </si>
+  <si>
+    <t>667196498</t>
+  </si>
+  <si>
+    <t>051073407</t>
+  </si>
+  <si>
+    <t>667373057</t>
+  </si>
+  <si>
+    <t>667386366</t>
+  </si>
+  <si>
+    <t>667305983</t>
+  </si>
+  <si>
+    <t>667213561</t>
+  </si>
+  <si>
+    <t>667266809</t>
+  </si>
+  <si>
+    <t>667370184</t>
+  </si>
+  <si>
+    <t>667359125</t>
+  </si>
+  <si>
+    <t>667285452</t>
+  </si>
+  <si>
+    <t>667366868</t>
+  </si>
+  <si>
+    <t>667377427</t>
+  </si>
+  <si>
+    <t>420085311</t>
+  </si>
+  <si>
+    <t>667400022</t>
+  </si>
+  <si>
+    <t>224922703</t>
+  </si>
+  <si>
+    <t>667334523</t>
+  </si>
+  <si>
+    <t>667301115</t>
+  </si>
+  <si>
+    <t>667372508</t>
+  </si>
+  <si>
+    <t>667347627</t>
+  </si>
+  <si>
+    <t>667376484</t>
+  </si>
+  <si>
+    <t>667410660</t>
+  </si>
+  <si>
+    <t>667345551</t>
+  </si>
+  <si>
+    <t>667323318</t>
+  </si>
+  <si>
+    <t>140492003</t>
+  </si>
+  <si>
+    <t>667182225</t>
+  </si>
+  <si>
+    <t>667291347</t>
+  </si>
+  <si>
+    <t>667345744</t>
+  </si>
+  <si>
+    <t>667343680</t>
+  </si>
+  <si>
+    <t>430254102</t>
+  </si>
+  <si>
+    <t>667438199</t>
+  </si>
+  <si>
+    <t>667351192</t>
+  </si>
+  <si>
+    <t>667197256</t>
+  </si>
+  <si>
+    <t>667200855</t>
+  </si>
+  <si>
+    <t>667265855</t>
+  </si>
+  <si>
+    <t>667349715</t>
+  </si>
+  <si>
+    <t>667306506</t>
+  </si>
+  <si>
+    <t>667334910</t>
+  </si>
+  <si>
+    <t>667433464</t>
+  </si>
+  <si>
+    <t>667421232</t>
+  </si>
+  <si>
+    <t>667371590</t>
+  </si>
+  <si>
+    <t>667386645</t>
+  </si>
+  <si>
+    <t>667369002</t>
+  </si>
+  <si>
+    <t>667345488</t>
+  </si>
+  <si>
+    <t>667250470</t>
+  </si>
+  <si>
+    <t>667191518</t>
+  </si>
+  <si>
+    <t>667384528</t>
+  </si>
+  <si>
+    <t>667428441</t>
+  </si>
+  <si>
+    <t>667364074</t>
+  </si>
+  <si>
+    <t>667215247</t>
+  </si>
+  <si>
+    <t>094675304</t>
+  </si>
+  <si>
+    <t>667241162</t>
+  </si>
+  <si>
+    <t>667288253</t>
+  </si>
+  <si>
+    <t>667229081</t>
+  </si>
+  <si>
+    <t>457575502</t>
+  </si>
+  <si>
+    <t>105671906</t>
+  </si>
+  <si>
+    <t>667392764</t>
+  </si>
+  <si>
+    <t>201766108</t>
+  </si>
+  <si>
+    <t>667352011</t>
+  </si>
+  <si>
+    <t>667388560</t>
+  </si>
+  <si>
+    <t>667350765</t>
+  </si>
+  <si>
+    <t>667236653</t>
+  </si>
+  <si>
+    <t>667405129</t>
+  </si>
+  <si>
+    <t>667350999</t>
+  </si>
+  <si>
+    <t>667357193</t>
+  </si>
+  <si>
+    <t>667164642</t>
+  </si>
+  <si>
+    <t>667414536</t>
+  </si>
+  <si>
+    <t>667215229</t>
+  </si>
+  <si>
+    <t>667353207</t>
+  </si>
+  <si>
+    <t>168740902</t>
+  </si>
+  <si>
+    <t>667361308</t>
+  </si>
+  <si>
+    <t>667157098</t>
+  </si>
+  <si>
+    <t>667160248</t>
+  </si>
+  <si>
+    <t>667173300</t>
+  </si>
+  <si>
+    <t>667338026</t>
   </si>
 </sst>
 </file>
@@ -612,14 +1068,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -640,21 +1102,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10A20F47-511B-408D-AB02-3508FD21912C}" name="Tabela1" displayName="Tabela1" ref="A1:L507" totalsRowShown="0">
-  <autoFilter ref="A1:L507" xr:uid="{10A20F47-511B-408D-AB02-3508FD21912C}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10A20F47-511B-408D-AB02-3508FD21912C}" name="Tabela1" displayName="Tabela1" ref="A1:M507" totalsRowShown="0">
+  <autoFilter ref="A1:M507" xr:uid="{10A20F47-511B-408D-AB02-3508FD21912C}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{B88BD886-BC25-41A1-B88B-B47E9F4E1BA9}" name="Paciente"/>
     <tableColumn id="2" xr3:uid="{DC16FBFE-E021-4194-AA3D-5D00851F470C}" name="Guia_Cod"/>
     <tableColumn id="3" xr3:uid="{CA2EB5AE-EA8B-4CF5-91CB-4300E784D724}" name="Senha"/>
     <tableColumn id="4" xr3:uid="{3BF5DCE4-E06A-4632-BB19-38A2A5EF975C}" name="Status"/>
-    <tableColumn id="5" xr3:uid="{C05787B6-A8B1-48A4-BFEB-776FF7F92EBD}" name="DataSolicit" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9BDF5E28-ACDB-4283-8142-714B4CA70DED}" name="DataAut" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C05787B6-A8B1-48A4-BFEB-776FF7F92EBD}" name="DataSolicit" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9BDF5E28-ACDB-4283-8142-714B4CA70DED}" name="DataAut" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{8EBD31C1-3A5D-4F96-8963-C0A30F753CAE}" name="PROCEDIMENTO"/>
     <tableColumn id="8" xr3:uid="{80EADE05-94FC-4CD1-93FA-23B699B60555}" name="Solicitado"/>
     <tableColumn id="9" xr3:uid="{A3FFCD0A-ACFA-4622-A2D5-14039A6EEF9A}" name="Qtde_Aut"/>
     <tableColumn id="10" xr3:uid="{F233EFF2-694A-4778-851B-DE93787C70E4}" name="ID_paciente"/>
     <tableColumn id="11" xr3:uid="{1C9CC44E-4CD7-4CEE-9AB3-B9A8A92256FA}" name="Realizado"/>
     <tableColumn id="12" xr3:uid="{A4DDE9D6-6B67-4BDC-87A2-107AB9B31E01}" name="SaldoGuia"/>
+    <tableColumn id="13" xr3:uid="{BA1248B6-2B74-41DC-872C-CD4593E138EC}" name="Carteirinha" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,15 +1421,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB25A7-60D9-49CA-B4E5-31E5B8563783}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:L507"/>
+  <dimension ref="A1:M507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -976,9 +1439,10 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,8 +1479,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1053,8 +1520,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <v>667192352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1091,8 +1561,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1129,8 +1602,11 @@
       <c r="L4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1158,8 +1634,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1196,8 +1675,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1234,8 +1716,11 @@
       <c r="L7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1272,8 +1757,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1310,8 +1798,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1348,8 +1839,11 @@
       <c r="L10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1386,8 +1880,11 @@
       <c r="L11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1424,8 +1921,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1462,8 +1962,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1500,8 +2003,11 @@
       <c r="L14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1538,8 +2044,11 @@
       <c r="L15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1576,8 +2085,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1614,8 +2126,11 @@
       <c r="L17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1652,8 +2167,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1690,8 +2208,11 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1728,8 +2249,11 @@
       <c r="L20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1766,8 +2290,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1804,8 +2331,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1842,8 +2372,11 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1880,8 +2413,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1918,8 +2454,11 @@
       <c r="L25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1956,8 +2495,11 @@
       <c r="L26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1994,8 +2536,11 @@
       <c r="L27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2577,11 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2070,8 +2618,11 @@
       <c r="L29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2108,8 +2659,11 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2146,8 +2700,11 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -2184,8 +2741,11 @@
       <c r="L32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2222,8 +2782,11 @@
       <c r="L33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2260,8 +2823,11 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="2">
+        <v>667331709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2298,8 +2864,11 @@
       <c r="L35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2336,8 +2905,11 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2374,8 +2946,11 @@
       <c r="L37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2412,8 +2987,11 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2450,8 +3028,11 @@
       <c r="L39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2488,8 +3069,11 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2526,8 +3110,11 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2564,8 +3151,11 @@
       <c r="L42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2602,8 +3192,11 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2640,8 +3233,11 @@
       <c r="L44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2678,8 +3274,11 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +3315,11 @@
       <c r="L46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2754,8 +3356,11 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2792,8 +3397,11 @@
       <c r="L48">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2830,8 +3438,11 @@
       <c r="L49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2868,8 +3479,11 @@
       <c r="L50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -2906,8 +3520,11 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2944,8 +3561,11 @@
       <c r="L52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3602,11 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -3020,8 +3643,11 @@
       <c r="L54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -3058,8 +3684,11 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="2">
+        <v>667384076</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -3096,8 +3725,11 @@
       <c r="L56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="2">
+        <v>667384076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3134,8 +3766,11 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -3172,8 +3807,11 @@
       <c r="L58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -3210,8 +3848,11 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -3248,8 +3889,11 @@
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -3286,8 +3930,11 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -3324,8 +3971,11 @@
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -3362,8 +4012,11 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3400,8 +4053,11 @@
       <c r="L64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3438,8 +4094,11 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -3476,8 +4135,11 @@
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -3514,8 +4176,11 @@
       <c r="L67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -3552,8 +4217,11 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -3590,8 +4258,11 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -3628,8 +4299,11 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -3666,8 +4340,11 @@
       <c r="L71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -3704,8 +4381,11 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -3742,8 +4422,11 @@
       <c r="L73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -3780,8 +4463,11 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -3818,8 +4504,11 @@
       <c r="L75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -3856,8 +4545,11 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -3894,8 +4586,11 @@
       <c r="L77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -3932,8 +4627,11 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -3970,8 +4668,11 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -4008,8 +4709,11 @@
       <c r="L80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -4046,8 +4750,11 @@
       <c r="L81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -4084,8 +4791,11 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -4122,8 +4832,11 @@
       <c r="L83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -4160,8 +4873,11 @@
       <c r="L84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -4198,8 +4914,11 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -4236,8 +4955,11 @@
       <c r="L86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -4274,8 +4996,11 @@
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -4312,8 +5037,11 @@
       <c r="L88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -4350,8 +5078,11 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -4388,8 +5119,11 @@
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -4426,8 +5160,11 @@
       <c r="L91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -4464,8 +5201,11 @@
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
@@ -4502,8 +5242,11 @@
       <c r="L93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -4540,8 +5283,11 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -4578,8 +5324,11 @@
       <c r="L95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -4616,8 +5365,11 @@
       <c r="L96">
         <v>-1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -4654,8 +5406,11 @@
       <c r="L97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -4692,8 +5447,11 @@
       <c r="L98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4730,8 +5488,11 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -4768,8 +5529,11 @@
       <c r="L100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>48</v>
       </c>
@@ -4806,8 +5570,11 @@
       <c r="L101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>48</v>
       </c>
@@ -4844,8 +5611,11 @@
       <c r="L102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>48</v>
       </c>
@@ -4882,8 +5652,11 @@
       <c r="L103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -4920,8 +5693,11 @@
       <c r="L104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -4958,8 +5734,11 @@
       <c r="L105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>48</v>
       </c>
@@ -4996,8 +5775,11 @@
       <c r="L106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -5034,8 +5816,11 @@
       <c r="L107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -5072,8 +5857,11 @@
       <c r="L108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -5110,8 +5898,11 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>51</v>
       </c>
@@ -5148,8 +5939,11 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -5186,8 +5980,11 @@
       <c r="L111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>52</v>
       </c>
@@ -5224,8 +6021,11 @@
       <c r="L112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>52</v>
       </c>
@@ -5262,8 +6062,11 @@
       <c r="L113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -5300,8 +6103,11 @@
       <c r="L114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>54</v>
       </c>
@@ -5338,8 +6144,11 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -5376,8 +6185,11 @@
       <c r="L116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -5414,8 +6226,11 @@
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -5452,8 +6267,11 @@
       <c r="L118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -5490,8 +6308,11 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -5528,8 +6349,11 @@
       <c r="L120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>56</v>
       </c>
@@ -5566,8 +6390,11 @@
       <c r="L121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>56</v>
       </c>
@@ -5604,8 +6431,11 @@
       <c r="L122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>57</v>
       </c>
@@ -5642,8 +6472,11 @@
       <c r="L123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -5680,8 +6513,11 @@
       <c r="L124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>57</v>
       </c>
@@ -5718,8 +6554,11 @@
       <c r="L125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -5756,8 +6595,11 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>57</v>
       </c>
@@ -5794,8 +6636,11 @@
       <c r="L127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -5832,8 +6677,11 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -5870,8 +6718,11 @@
       <c r="L129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>58</v>
       </c>
@@ -5908,8 +6759,11 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -5946,8 +6800,11 @@
       <c r="L131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -5984,8 +6841,11 @@
       <c r="L132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -6022,8 +6882,11 @@
       <c r="L133">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -6060,8 +6923,11 @@
       <c r="L134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -6098,8 +6964,11 @@
       <c r="L135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -6136,8 +7005,11 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -6174,8 +7046,11 @@
       <c r="L137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -6212,8 +7087,11 @@
       <c r="L138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>60</v>
       </c>
@@ -6250,8 +7128,11 @@
       <c r="L139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -6288,8 +7169,11 @@
       <c r="L140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -6326,8 +7210,11 @@
       <c r="L141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>62</v>
       </c>
@@ -6364,8 +7251,11 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -6402,8 +7292,11 @@
       <c r="L143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>62</v>
       </c>
@@ -6440,8 +7333,11 @@
       <c r="L144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -6478,8 +7374,11 @@
       <c r="L145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>64</v>
       </c>
@@ -6516,8 +7415,11 @@
       <c r="L146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>64</v>
       </c>
@@ -6554,8 +7456,11 @@
       <c r="L147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>64</v>
       </c>
@@ -6592,8 +7497,11 @@
       <c r="L148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>64</v>
       </c>
@@ -6630,8 +7538,11 @@
       <c r="L149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -6668,8 +7579,11 @@
       <c r="L150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>65</v>
       </c>
@@ -6706,8 +7620,11 @@
       <c r="L151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>65</v>
       </c>
@@ -6744,8 +7661,11 @@
       <c r="L152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>65</v>
       </c>
@@ -6782,8 +7702,11 @@
       <c r="L153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>66</v>
       </c>
@@ -6820,8 +7743,11 @@
       <c r="L154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>66</v>
       </c>
@@ -6858,8 +7784,11 @@
       <c r="L155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>66</v>
       </c>
@@ -6896,8 +7825,11 @@
       <c r="L156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>66</v>
       </c>
@@ -6934,8 +7866,11 @@
       <c r="L157">
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>67</v>
       </c>
@@ -6972,8 +7907,11 @@
       <c r="L158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -7010,8 +7948,11 @@
       <c r="L159">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>67</v>
       </c>
@@ -7048,8 +7989,11 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>67</v>
       </c>
@@ -7086,8 +8030,11 @@
       <c r="L161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>67</v>
       </c>
@@ -7124,8 +8071,11 @@
       <c r="L162">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>68</v>
       </c>
@@ -7162,8 +8112,11 @@
       <c r="L163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>68</v>
       </c>
@@ -7200,8 +8153,11 @@
       <c r="L164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>68</v>
       </c>
@@ -7238,8 +8194,11 @@
       <c r="L165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>68</v>
       </c>
@@ -7276,8 +8235,11 @@
       <c r="L166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>68</v>
       </c>
@@ -7314,8 +8276,11 @@
       <c r="L167">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>69</v>
       </c>
@@ -7352,8 +8317,11 @@
       <c r="L168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>69</v>
       </c>
@@ -7390,8 +8358,11 @@
       <c r="L169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>70</v>
       </c>
@@ -7428,8 +8399,11 @@
       <c r="L170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>70</v>
       </c>
@@ -7466,8 +8440,11 @@
       <c r="L171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>71</v>
       </c>
@@ -7504,8 +8481,11 @@
       <c r="L172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>71</v>
       </c>
@@ -7542,8 +8522,11 @@
       <c r="L173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>71</v>
       </c>
@@ -7580,8 +8563,11 @@
       <c r="L174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>72</v>
       </c>
@@ -7618,8 +8604,11 @@
       <c r="L175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>73</v>
       </c>
@@ -7656,8 +8645,11 @@
       <c r="L176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>73</v>
       </c>
@@ -7694,8 +8686,11 @@
       <c r="L177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -7732,8 +8727,11 @@
       <c r="L178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>74</v>
       </c>
@@ -7770,8 +8768,11 @@
       <c r="L179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>75</v>
       </c>
@@ -7808,8 +8809,11 @@
       <c r="L180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180" s="2">
+        <v>667411024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>75</v>
       </c>
@@ -7846,8 +8850,11 @@
       <c r="L181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181" s="2">
+        <v>667411024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>75</v>
       </c>
@@ -7884,8 +8891,11 @@
       <c r="L182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182" s="2">
+        <v>667411024</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>75</v>
       </c>
@@ -7922,8 +8932,11 @@
       <c r="L183">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183" s="2">
+        <v>667411024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>76</v>
       </c>
@@ -7960,8 +8973,11 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -7998,8 +9014,11 @@
       <c r="L185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>77</v>
       </c>
@@ -8036,8 +9055,11 @@
       <c r="L186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>77</v>
       </c>
@@ -8074,8 +9096,11 @@
       <c r="L187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>77</v>
       </c>
@@ -8112,8 +9137,11 @@
       <c r="L188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>77</v>
       </c>
@@ -8150,8 +9178,11 @@
       <c r="L189">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>78</v>
       </c>
@@ -8188,8 +9219,11 @@
       <c r="L190">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>79</v>
       </c>
@@ -8226,8 +9260,11 @@
       <c r="L191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>79</v>
       </c>
@@ -8264,8 +9301,11 @@
       <c r="L192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>80</v>
       </c>
@@ -8302,8 +9342,11 @@
       <c r="L193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>80</v>
       </c>
@@ -8340,8 +9383,11 @@
       <c r="L194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>80</v>
       </c>
@@ -8378,8 +9424,11 @@
       <c r="L195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>80</v>
       </c>
@@ -8416,8 +9465,11 @@
       <c r="L196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>81</v>
       </c>
@@ -8454,8 +9506,11 @@
       <c r="L197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>81</v>
       </c>
@@ -8492,8 +9547,11 @@
       <c r="L198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>81</v>
       </c>
@@ -8530,8 +9588,11 @@
       <c r="L199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>82</v>
       </c>
@@ -8568,8 +9629,11 @@
       <c r="L200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>82</v>
       </c>
@@ -8606,8 +9670,11 @@
       <c r="L201">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>83</v>
       </c>
@@ -8644,8 +9711,11 @@
       <c r="L202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>83</v>
       </c>
@@ -8682,8 +9752,11 @@
       <c r="L203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>83</v>
       </c>
@@ -8720,8 +9793,11 @@
       <c r="L204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>83</v>
       </c>
@@ -8758,8 +9834,11 @@
       <c r="L205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -8796,8 +9875,11 @@
       <c r="L206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>83</v>
       </c>
@@ -8834,8 +9916,11 @@
       <c r="L207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>83</v>
       </c>
@@ -8872,8 +9957,11 @@
       <c r="L208">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>84</v>
       </c>
@@ -8910,8 +9998,11 @@
       <c r="L209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>84</v>
       </c>
@@ -8948,8 +10039,11 @@
       <c r="L210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>85</v>
       </c>
@@ -8986,8 +10080,11 @@
       <c r="L211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>85</v>
       </c>
@@ -9024,8 +10121,11 @@
       <c r="L212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>85</v>
       </c>
@@ -9062,8 +10162,11 @@
       <c r="L213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>85</v>
       </c>
@@ -9100,8 +10203,11 @@
       <c r="L214">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>86</v>
       </c>
@@ -9138,8 +10244,11 @@
       <c r="L215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>86</v>
       </c>
@@ -9176,8 +10285,11 @@
       <c r="L216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>86</v>
       </c>
@@ -9214,8 +10326,11 @@
       <c r="L217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>86</v>
       </c>
@@ -9252,8 +10367,11 @@
       <c r="L218">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>87</v>
       </c>
@@ -9290,8 +10408,11 @@
       <c r="L219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>87</v>
       </c>
@@ -9328,8 +10449,11 @@
       <c r="L220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>87</v>
       </c>
@@ -9366,8 +10490,11 @@
       <c r="L221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>87</v>
       </c>
@@ -9404,8 +10531,11 @@
       <c r="L222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>87</v>
       </c>
@@ -9442,8 +10572,11 @@
       <c r="L223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>87</v>
       </c>
@@ -9480,8 +10613,11 @@
       <c r="L224">
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>88</v>
       </c>
@@ -9518,8 +10654,11 @@
       <c r="L225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>88</v>
       </c>
@@ -9556,8 +10695,11 @@
       <c r="L226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>88</v>
       </c>
@@ -9594,8 +10736,11 @@
       <c r="L227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>88</v>
       </c>
@@ -9632,8 +10777,11 @@
       <c r="L228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>89</v>
       </c>
@@ -9670,8 +10818,11 @@
       <c r="L229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>89</v>
       </c>
@@ -9708,8 +10859,11 @@
       <c r="L230">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>89</v>
       </c>
@@ -9746,8 +10900,11 @@
       <c r="L231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>90</v>
       </c>
@@ -9784,8 +10941,11 @@
       <c r="L232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>90</v>
       </c>
@@ -9822,8 +10982,11 @@
       <c r="L233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>90</v>
       </c>
@@ -9860,8 +11023,11 @@
       <c r="L234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>90</v>
       </c>
@@ -9898,8 +11064,11 @@
       <c r="L235">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>90</v>
       </c>
@@ -9936,8 +11105,11 @@
       <c r="L236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -9974,8 +11146,11 @@
       <c r="L237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -10012,8 +11187,11 @@
       <c r="L238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -10050,8 +11228,11 @@
       <c r="L239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -10088,8 +11269,11 @@
       <c r="L240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>92</v>
       </c>
@@ -10126,8 +11310,11 @@
       <c r="L241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>93</v>
       </c>
@@ -10164,8 +11351,11 @@
       <c r="L242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>93</v>
       </c>
@@ -10202,8 +11392,11 @@
       <c r="L243">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>94</v>
       </c>
@@ -10240,8 +11433,11 @@
       <c r="L244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>94</v>
       </c>
@@ -10278,8 +11474,11 @@
       <c r="L245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>95</v>
       </c>
@@ -10316,8 +11515,11 @@
       <c r="L246">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>95</v>
       </c>
@@ -10354,8 +11556,11 @@
       <c r="L247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>96</v>
       </c>
@@ -10392,8 +11597,11 @@
       <c r="L248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>96</v>
       </c>
@@ -10430,8 +11638,11 @@
       <c r="L249">
         <v>4</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>96</v>
       </c>
@@ -10468,8 +11679,11 @@
       <c r="L250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>96</v>
       </c>
@@ -10506,8 +11720,11 @@
       <c r="L251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>97</v>
       </c>
@@ -10544,8 +11761,11 @@
       <c r="L252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>98</v>
       </c>
@@ -10582,8 +11802,11 @@
       <c r="L253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>99</v>
       </c>
@@ -10620,8 +11843,11 @@
       <c r="L254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>99</v>
       </c>
@@ -10658,8 +11884,11 @@
       <c r="L255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>99</v>
       </c>
@@ -10696,8 +11925,11 @@
       <c r="L256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -10734,8 +11966,11 @@
       <c r="L257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>100</v>
       </c>
@@ -10772,8 +12007,11 @@
       <c r="L258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>100</v>
       </c>
@@ -10810,8 +12048,11 @@
       <c r="L259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>100</v>
       </c>
@@ -10848,8 +12089,11 @@
       <c r="L260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>101</v>
       </c>
@@ -10886,8 +12130,11 @@
       <c r="L261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>101</v>
       </c>
@@ -10924,8 +12171,11 @@
       <c r="L262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>101</v>
       </c>
@@ -10962,8 +12212,11 @@
       <c r="L263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>101</v>
       </c>
@@ -11000,8 +12253,11 @@
       <c r="L264">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>101</v>
       </c>
@@ -11038,8 +12294,11 @@
       <c r="L265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>101</v>
       </c>
@@ -11076,8 +12335,11 @@
       <c r="L266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>101</v>
       </c>
@@ -11114,8 +12376,11 @@
       <c r="L267">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>102</v>
       </c>
@@ -11152,8 +12417,11 @@
       <c r="L268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>102</v>
       </c>
@@ -11190,8 +12458,11 @@
       <c r="L269">
         <v>8</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>102</v>
       </c>
@@ -11228,8 +12499,11 @@
       <c r="L270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>102</v>
       </c>
@@ -11266,8 +12540,11 @@
       <c r="L271">
         <v>8</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>103</v>
       </c>
@@ -11304,8 +12581,11 @@
       <c r="L272">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>103</v>
       </c>
@@ -11342,8 +12622,11 @@
       <c r="L273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>104</v>
       </c>
@@ -11380,8 +12663,11 @@
       <c r="L274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>104</v>
       </c>
@@ -11418,8 +12704,11 @@
       <c r="L275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -11456,8 +12745,11 @@
       <c r="L276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>104</v>
       </c>
@@ -11494,8 +12786,11 @@
       <c r="L277">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>105</v>
       </c>
@@ -11532,8 +12827,11 @@
       <c r="L278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>105</v>
       </c>
@@ -11570,8 +12868,11 @@
       <c r="L279">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>105</v>
       </c>
@@ -11608,8 +12909,11 @@
       <c r="L280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>105</v>
       </c>
@@ -11646,8 +12950,11 @@
       <c r="L281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>106</v>
       </c>
@@ -11684,8 +12991,11 @@
       <c r="L282">
         <v>5</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>106</v>
       </c>
@@ -11722,8 +13032,11 @@
       <c r="L283">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>107</v>
       </c>
@@ -11760,8 +13073,11 @@
       <c r="L284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>107</v>
       </c>
@@ -11798,8 +13114,11 @@
       <c r="L285">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>107</v>
       </c>
@@ -11836,8 +13155,11 @@
       <c r="L286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>107</v>
       </c>
@@ -11874,8 +13196,11 @@
       <c r="L287">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>108</v>
       </c>
@@ -11912,8 +13237,11 @@
       <c r="L288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>108</v>
       </c>
@@ -11950,8 +13278,11 @@
       <c r="L289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>108</v>
       </c>
@@ -11988,8 +13319,11 @@
       <c r="L290">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>109</v>
       </c>
@@ -12026,8 +13360,11 @@
       <c r="L291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>109</v>
       </c>
@@ -12064,8 +13401,11 @@
       <c r="L292">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>110</v>
       </c>
@@ -12102,8 +13442,11 @@
       <c r="L293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>110</v>
       </c>
@@ -12140,8 +13483,11 @@
       <c r="L294">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>110</v>
       </c>
@@ -12178,8 +13524,11 @@
       <c r="L295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>110</v>
       </c>
@@ -12216,8 +13565,11 @@
       <c r="L296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>110</v>
       </c>
@@ -12254,8 +13606,11 @@
       <c r="L297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>111</v>
       </c>
@@ -12292,8 +13647,11 @@
       <c r="L298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>111</v>
       </c>
@@ -12330,8 +13688,11 @@
       <c r="L299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>112</v>
       </c>
@@ -12368,8 +13729,11 @@
       <c r="L300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>112</v>
       </c>
@@ -12406,8 +13770,11 @@
       <c r="L301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>112</v>
       </c>
@@ -12444,8 +13811,11 @@
       <c r="L302">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>112</v>
       </c>
@@ -12482,8 +13852,11 @@
       <c r="L303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>113</v>
       </c>
@@ -12520,8 +13893,11 @@
       <c r="L304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>113</v>
       </c>
@@ -12558,8 +13934,11 @@
       <c r="L305">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>114</v>
       </c>
@@ -12596,8 +13975,11 @@
       <c r="L306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>114</v>
       </c>
@@ -12634,8 +14016,11 @@
       <c r="L307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>114</v>
       </c>
@@ -12672,8 +14057,11 @@
       <c r="L308">
         <v>4</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>115</v>
       </c>
@@ -12710,8 +14098,11 @@
       <c r="L309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>115</v>
       </c>
@@ -12748,8 +14139,11 @@
       <c r="L310">
         <v>7</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>116</v>
       </c>
@@ -12786,8 +14180,11 @@
       <c r="L311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>117</v>
       </c>
@@ -12824,8 +14221,11 @@
       <c r="L312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>117</v>
       </c>
@@ -12862,8 +14262,11 @@
       <c r="L313">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -12900,8 +14303,11 @@
       <c r="L314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>118</v>
       </c>
@@ -12938,8 +14344,11 @@
       <c r="L315">
         <v>7</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315" s="2">
+        <v>667376484</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>119</v>
       </c>
@@ -12976,8 +14385,11 @@
       <c r="L316">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316" s="2">
+        <v>152381303</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>119</v>
       </c>
@@ -13014,8 +14426,11 @@
       <c r="L317">
         <v>8</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317" s="2">
+        <v>152381303</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>120</v>
       </c>
@@ -13052,8 +14467,11 @@
       <c r="L318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>120</v>
       </c>
@@ -13090,8 +14508,11 @@
       <c r="L319">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>120</v>
       </c>
@@ -13128,8 +14549,11 @@
       <c r="L320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>120</v>
       </c>
@@ -13166,8 +14590,11 @@
       <c r="L321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>120</v>
       </c>
@@ -13204,8 +14631,11 @@
       <c r="L322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>120</v>
       </c>
@@ -13242,8 +14672,11 @@
       <c r="L323">
         <v>6</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>120</v>
       </c>
@@ -13280,8 +14713,11 @@
       <c r="L324">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>120</v>
       </c>
@@ -13318,8 +14754,11 @@
       <c r="L325">
         <v>8</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>122</v>
       </c>
@@ -13356,8 +14795,11 @@
       <c r="L326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>123</v>
       </c>
@@ -13394,8 +14836,11 @@
       <c r="L327">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>124</v>
       </c>
@@ -13432,8 +14877,11 @@
       <c r="L328">
         <v>4</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>124</v>
       </c>
@@ -13470,8 +14918,11 @@
       <c r="L329">
         <v>8</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>125</v>
       </c>
@@ -13508,8 +14959,11 @@
       <c r="L330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330" s="2">
+        <v>276499702</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>125</v>
       </c>
@@ -13546,8 +15000,11 @@
       <c r="L331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331" s="2">
+        <v>276499702</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>126</v>
       </c>
@@ -13584,8 +15041,11 @@
       <c r="L332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>126</v>
       </c>
@@ -13622,8 +15082,11 @@
       <c r="L333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>126</v>
       </c>
@@ -13660,8 +15123,11 @@
       <c r="L334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>126</v>
       </c>
@@ -13698,8 +15164,11 @@
       <c r="L335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>126</v>
       </c>
@@ -13736,8 +15205,11 @@
       <c r="L336">
         <v>9</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>126</v>
       </c>
@@ -13774,8 +15246,11 @@
       <c r="L337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>127</v>
       </c>
@@ -13812,8 +15287,11 @@
       <c r="L338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>127</v>
       </c>
@@ -13850,8 +15328,11 @@
       <c r="L339">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>128</v>
       </c>
@@ -13888,8 +15369,11 @@
       <c r="L340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>128</v>
       </c>
@@ -13926,8 +15410,11 @@
       <c r="L341">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>128</v>
       </c>
@@ -13964,8 +15451,11 @@
       <c r="L342">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>128</v>
       </c>
@@ -14002,8 +15492,11 @@
       <c r="L343">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>129</v>
       </c>
@@ -14040,8 +15533,11 @@
       <c r="L344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>129</v>
       </c>
@@ -14078,8 +15574,11 @@
       <c r="L345">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>129</v>
       </c>
@@ -14116,8 +15615,11 @@
       <c r="L346">
         <v>5</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>129</v>
       </c>
@@ -14154,8 +15656,11 @@
       <c r="L347">
         <v>8</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>130</v>
       </c>
@@ -14192,8 +15697,11 @@
       <c r="L348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>130</v>
       </c>
@@ -14230,8 +15738,11 @@
       <c r="L349">
         <v>2</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>131</v>
       </c>
@@ -14268,8 +15779,11 @@
       <c r="L350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>131</v>
       </c>
@@ -14306,8 +15820,11 @@
       <c r="L351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>131</v>
       </c>
@@ -14344,8 +15861,11 @@
       <c r="L352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>131</v>
       </c>
@@ -14382,8 +15902,11 @@
       <c r="L353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>131</v>
       </c>
@@ -14420,8 +15943,11 @@
       <c r="L354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>131</v>
       </c>
@@ -14458,8 +15984,11 @@
       <c r="L355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>132</v>
       </c>
@@ -14496,8 +16025,11 @@
       <c r="L356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>132</v>
       </c>
@@ -14534,8 +16066,11 @@
       <c r="L357">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>133</v>
       </c>
@@ -14572,8 +16107,11 @@
       <c r="L358">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>133</v>
       </c>
@@ -14610,8 +16148,11 @@
       <c r="L359">
         <v>6</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>134</v>
       </c>
@@ -14648,8 +16189,11 @@
       <c r="L360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360" s="2">
+        <v>667299348</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>134</v>
       </c>
@@ -14686,8 +16230,11 @@
       <c r="L361">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361" s="2">
+        <v>667299348</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>134</v>
       </c>
@@ -14724,8 +16271,11 @@
       <c r="L362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362" s="2">
+        <v>667299348</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>134</v>
       </c>
@@ -14762,8 +16312,11 @@
       <c r="L363">
         <v>9</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363" s="2">
+        <v>667299348</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>135</v>
       </c>
@@ -14800,8 +16353,11 @@
       <c r="L364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>135</v>
       </c>
@@ -14838,8 +16394,11 @@
       <c r="L365">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>135</v>
       </c>
@@ -14876,8 +16435,11 @@
       <c r="L366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>135</v>
       </c>
@@ -14914,8 +16476,11 @@
       <c r="L367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>135</v>
       </c>
@@ -14952,8 +16517,11 @@
       <c r="L368">
         <v>13</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>136</v>
       </c>
@@ -14990,8 +16558,11 @@
       <c r="L369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>136</v>
       </c>
@@ -15028,8 +16599,11 @@
       <c r="L370">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>136</v>
       </c>
@@ -15066,8 +16640,11 @@
       <c r="L371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>136</v>
       </c>
@@ -15104,8 +16681,11 @@
       <c r="L372">
         <v>6</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>137</v>
       </c>
@@ -15142,8 +16722,11 @@
       <c r="L373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>137</v>
       </c>
@@ -15180,8 +16763,11 @@
       <c r="L374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>137</v>
       </c>
@@ -15218,8 +16804,11 @@
       <c r="L375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>137</v>
       </c>
@@ -15256,8 +16845,11 @@
       <c r="L376">
         <v>6</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>138</v>
       </c>
@@ -15294,8 +16886,11 @@
       <c r="L377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>138</v>
       </c>
@@ -15332,8 +16927,11 @@
       <c r="L378">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>138</v>
       </c>
@@ -15370,8 +16968,11 @@
       <c r="L379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>139</v>
       </c>
@@ -15408,8 +17009,11 @@
       <c r="L380">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>140</v>
       </c>
@@ -15446,8 +17050,11 @@
       <c r="L381">
         <v>2</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>141</v>
       </c>
@@ -15484,8 +17091,11 @@
       <c r="L382">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>141</v>
       </c>
@@ -15522,8 +17132,11 @@
       <c r="L383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>141</v>
       </c>
@@ -15560,8 +17173,11 @@
       <c r="L384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>142</v>
       </c>
@@ -15598,8 +17214,11 @@
       <c r="L385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>142</v>
       </c>
@@ -15636,8 +17255,11 @@
       <c r="L386">
         <v>7</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>142</v>
       </c>
@@ -15674,8 +17296,11 @@
       <c r="L387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>142</v>
       </c>
@@ -15712,8 +17337,11 @@
       <c r="L388">
         <v>5</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>143</v>
       </c>
@@ -15750,8 +17378,11 @@
       <c r="L389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>143</v>
       </c>
@@ -15788,8 +17419,11 @@
       <c r="L390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>143</v>
       </c>
@@ -15826,8 +17460,11 @@
       <c r="L391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>143</v>
       </c>
@@ -15864,8 +17501,11 @@
       <c r="L392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>143</v>
       </c>
@@ -15902,8 +17542,11 @@
       <c r="L393">
         <v>5</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>144</v>
       </c>
@@ -15940,8 +17583,11 @@
       <c r="L394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>144</v>
       </c>
@@ -15978,8 +17624,11 @@
       <c r="L395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>144</v>
       </c>
@@ -16016,8 +17665,11 @@
       <c r="L396">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>144</v>
       </c>
@@ -16054,8 +17706,11 @@
       <c r="L397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>144</v>
       </c>
@@ -16092,8 +17747,11 @@
       <c r="L398">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>145</v>
       </c>
@@ -16130,8 +17788,11 @@
       <c r="L399">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>145</v>
       </c>
@@ -16168,8 +17829,11 @@
       <c r="L400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -16206,8 +17870,11 @@
       <c r="L401">
         <v>2</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>146</v>
       </c>
@@ -16244,8 +17911,11 @@
       <c r="L402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>146</v>
       </c>
@@ -16282,8 +17952,11 @@
       <c r="L403">
         <v>6</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>146</v>
       </c>
@@ -16320,8 +17993,11 @@
       <c r="L404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>147</v>
       </c>
@@ -16358,8 +18034,11 @@
       <c r="L405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>147</v>
       </c>
@@ -16396,8 +18075,11 @@
       <c r="L406">
         <v>7</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>148</v>
       </c>
@@ -16434,8 +18116,11 @@
       <c r="L407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>148</v>
       </c>
@@ -16472,8 +18157,11 @@
       <c r="L408">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>148</v>
       </c>
@@ -16510,8 +18198,11 @@
       <c r="L409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>148</v>
       </c>
@@ -16548,8 +18239,11 @@
       <c r="L410">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>149</v>
       </c>
@@ -16586,8 +18280,11 @@
       <c r="L411">
         <v>15</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>149</v>
       </c>
@@ -16624,8 +18321,11 @@
       <c r="L412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>150</v>
       </c>
@@ -16662,8 +18362,11 @@
       <c r="L413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>150</v>
       </c>
@@ -16700,8 +18403,11 @@
       <c r="L414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>150</v>
       </c>
@@ -16738,8 +18444,11 @@
       <c r="L415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>150</v>
       </c>
@@ -16776,8 +18485,11 @@
       <c r="L416">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M416" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>151</v>
       </c>
@@ -16814,8 +18526,11 @@
       <c r="L417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M417" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>151</v>
       </c>
@@ -16852,8 +18567,11 @@
       <c r="L418">
         <v>3</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M418" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>152</v>
       </c>
@@ -16890,8 +18608,11 @@
       <c r="L419">
         <v>8</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M419" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>152</v>
       </c>
@@ -16928,8 +18649,11 @@
       <c r="L420">
         <v>8</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M420" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>153</v>
       </c>
@@ -16966,8 +18690,11 @@
       <c r="L421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M421" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>154</v>
       </c>
@@ -17004,8 +18731,11 @@
       <c r="L422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M422" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>154</v>
       </c>
@@ -17042,8 +18772,11 @@
       <c r="L423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M423" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>154</v>
       </c>
@@ -17080,8 +18813,11 @@
       <c r="L424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>154</v>
       </c>
@@ -17118,8 +18854,11 @@
       <c r="L425">
         <v>5</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>154</v>
       </c>
@@ -17156,8 +18895,11 @@
       <c r="L426">
         <v>15</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M426" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>154</v>
       </c>
@@ -17194,8 +18936,11 @@
       <c r="L427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M427" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>154</v>
       </c>
@@ -17232,8 +18977,11 @@
       <c r="L428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M428" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>154</v>
       </c>
@@ -17270,8 +19018,11 @@
       <c r="L429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M429" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>154</v>
       </c>
@@ -17308,8 +19059,11 @@
       <c r="L430">
         <v>10</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>155</v>
       </c>
@@ -17346,8 +19100,11 @@
       <c r="L431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M431" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>155</v>
       </c>
@@ -17384,8 +19141,11 @@
       <c r="L432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M432" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>155</v>
       </c>
@@ -17422,8 +19182,11 @@
       <c r="L433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M433" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>155</v>
       </c>
@@ -17460,8 +19223,11 @@
       <c r="L434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M434" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>155</v>
       </c>
@@ -17498,8 +19264,11 @@
       <c r="L435">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M435" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>156</v>
       </c>
@@ -17536,8 +19305,11 @@
       <c r="L436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M436" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>156</v>
       </c>
@@ -17574,8 +19346,11 @@
       <c r="L437">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>156</v>
       </c>
@@ -17612,8 +19387,11 @@
       <c r="L438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M438" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>156</v>
       </c>
@@ -17650,8 +19428,11 @@
       <c r="L439">
         <v>12</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M439" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>157</v>
       </c>
@@ -17688,8 +19469,11 @@
       <c r="L440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M440" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>157</v>
       </c>
@@ -17726,8 +19510,11 @@
       <c r="L441">
         <v>5</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M441" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>158</v>
       </c>
@@ -17764,8 +19551,11 @@
       <c r="L442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M442" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>158</v>
       </c>
@@ -17802,8 +19592,11 @@
       <c r="L443">
         <v>7</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M443" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>158</v>
       </c>
@@ -17840,8 +19633,11 @@
       <c r="L444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M444" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>158</v>
       </c>
@@ -17878,8 +19674,11 @@
       <c r="L445">
         <v>5</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M445" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>159</v>
       </c>
@@ -17916,8 +19715,11 @@
       <c r="L446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M446" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>159</v>
       </c>
@@ -17954,8 +19756,11 @@
       <c r="L447">
         <v>2</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M447" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>160</v>
       </c>
@@ -17992,8 +19797,11 @@
       <c r="L448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M448" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>160</v>
       </c>
@@ -18030,8 +19838,11 @@
       <c r="L449">
         <v>3</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M449" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>161</v>
       </c>
@@ -18068,8 +19879,11 @@
       <c r="L450">
         <v>2</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M450" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>161</v>
       </c>
@@ -18106,8 +19920,11 @@
       <c r="L451">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>161</v>
       </c>
@@ -18144,8 +19961,11 @@
       <c r="L452">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M452" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>161</v>
       </c>
@@ -18182,8 +20002,11 @@
       <c r="L453">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M453" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>162</v>
       </c>
@@ -18220,8 +20043,11 @@
       <c r="L454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M454" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>162</v>
       </c>
@@ -18258,8 +20084,11 @@
       <c r="L455">
         <v>9</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M455" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>163</v>
       </c>
@@ -18296,8 +20125,11 @@
       <c r="L456">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M456" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>163</v>
       </c>
@@ -18334,8 +20166,11 @@
       <c r="L457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M457" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>163</v>
       </c>
@@ -18372,8 +20207,11 @@
       <c r="L458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M458" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>163</v>
       </c>
@@ -18410,8 +20248,11 @@
       <c r="L459">
         <v>5</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M459" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>164</v>
       </c>
@@ -18448,8 +20289,11 @@
       <c r="L460">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M460" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>165</v>
       </c>
@@ -18486,8 +20330,11 @@
       <c r="L461">
         <v>2</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M461" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>165</v>
       </c>
@@ -18524,8 +20371,11 @@
       <c r="L462">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M462" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>165</v>
       </c>
@@ -18562,8 +20412,11 @@
       <c r="L463">
         <v>2</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M463" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>165</v>
       </c>
@@ -18600,8 +20453,11 @@
       <c r="L464">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M464" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>165</v>
       </c>
@@ -18638,8 +20494,11 @@
       <c r="L465">
         <v>2</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M465" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>165</v>
       </c>
@@ -18676,8 +20535,11 @@
       <c r="L466">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M466" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>169</v>
       </c>
@@ -18714,8 +20576,11 @@
       <c r="L467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M467" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>169</v>
       </c>
@@ -18752,8 +20617,11 @@
       <c r="L468">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M468" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>169</v>
       </c>
@@ -18790,8 +20658,11 @@
       <c r="L469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M469" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>169</v>
       </c>
@@ -18828,8 +20699,11 @@
       <c r="L470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M470" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>169</v>
       </c>
@@ -18866,8 +20740,11 @@
       <c r="L471">
         <v>7</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M471" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>169</v>
       </c>
@@ -18904,8 +20781,11 @@
       <c r="L472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M472" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>169</v>
       </c>
@@ -18942,8 +20822,11 @@
       <c r="L473">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M473" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>169</v>
       </c>
@@ -18980,8 +20863,11 @@
       <c r="L474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M474" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>169</v>
       </c>
@@ -19018,8 +20904,11 @@
       <c r="L475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M475" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>170</v>
       </c>
@@ -19056,8 +20945,11 @@
       <c r="L476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M476" s="2">
+        <v>667441137</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>171</v>
       </c>
@@ -19094,8 +20986,11 @@
       <c r="L477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M477" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>171</v>
       </c>
@@ -19132,8 +21027,11 @@
       <c r="L478">
         <v>6</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M478" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>172</v>
       </c>
@@ -19170,8 +21068,11 @@
       <c r="L479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M479" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>172</v>
       </c>
@@ -19208,8 +21109,11 @@
       <c r="L480">
         <v>5</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M480" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>173</v>
       </c>
@@ -19246,8 +21150,11 @@
       <c r="L481">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M481" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>173</v>
       </c>
@@ -19284,8 +21191,11 @@
       <c r="L482">
         <v>5</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M482" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>174</v>
       </c>
@@ -19322,8 +21232,11 @@
       <c r="L483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M483" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>174</v>
       </c>
@@ -19360,8 +21273,11 @@
       <c r="L484">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M484" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>174</v>
       </c>
@@ -19398,8 +21314,11 @@
       <c r="L485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M485" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>174</v>
       </c>
@@ -19436,8 +21355,11 @@
       <c r="L486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M486" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>175</v>
       </c>
@@ -19474,8 +21396,11 @@
       <c r="L487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M487" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>175</v>
       </c>
@@ -19512,8 +21437,11 @@
       <c r="L488">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M488" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>176</v>
       </c>
@@ -19550,8 +21478,11 @@
       <c r="L489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M489" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>176</v>
       </c>
@@ -19588,8 +21519,11 @@
       <c r="L490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M490" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>176</v>
       </c>
@@ -19626,8 +21560,11 @@
       <c r="L491">
         <v>2</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M491" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>177</v>
       </c>
@@ -19664,8 +21601,11 @@
       <c r="L492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M492" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>177</v>
       </c>
@@ -19702,8 +21642,11 @@
       <c r="L493">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M493" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>177</v>
       </c>
@@ -19740,8 +21683,11 @@
       <c r="L494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M494" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>177</v>
       </c>
@@ -19778,8 +21724,11 @@
       <c r="L495">
         <v>2</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M495" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>178</v>
       </c>
@@ -19816,8 +21765,11 @@
       <c r="L496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M496" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>178</v>
       </c>
@@ -19854,8 +21806,11 @@
       <c r="L497">
         <v>2</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M497" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>179</v>
       </c>
@@ -19892,8 +21847,11 @@
       <c r="L498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M498" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>179</v>
       </c>
@@ -19930,8 +21888,11 @@
       <c r="L499">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M499" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>180</v>
       </c>
@@ -19968,8 +21929,11 @@
       <c r="L500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M500" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>180</v>
       </c>
@@ -20006,8 +21970,11 @@
       <c r="L501">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M501" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>180</v>
       </c>
@@ -20044,8 +22011,11 @@
       <c r="L502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M502" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>180</v>
       </c>
@@ -20082,8 +22052,11 @@
       <c r="L503">
         <v>2</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M503" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>180</v>
       </c>
@@ -20120,8 +22093,11 @@
       <c r="L504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M504" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>180</v>
       </c>
@@ -20158,8 +22134,11 @@
       <c r="L505">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M505" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>180</v>
       </c>
@@ -20196,8 +22175,11 @@
       <c r="L506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M506" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>180</v>
       </c>
@@ -20233,6 +22215,9 @@
       </c>
       <c r="L507">
         <v>1</v>
+      </c>
+      <c r="M507" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
